--- a/docs/scatacseq/scatacseq-metadata.xlsx
+++ b/docs/scatacseq/scatacseq-metadata.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Export this as TSV" sheetId="1" r:id="rId1"/>
+    <sheet name="Export as TSV" sheetId="1" r:id="rId1"/>
     <sheet name="assay_category list" sheetId="2" r:id="rId2"/>
     <sheet name="assay_type list" sheetId="3" r:id="rId3"/>
     <sheet name="analyte_class list" sheetId="4" r:id="rId4"/>
     <sheet name="sc_isolation_entity list" sheetId="5" r:id="rId5"/>
     <sheet name="sc_isolation_enrichment list" sheetId="6" r:id="rId6"/>
     <sheet name="transposition_method list" sheetId="7" r:id="rId7"/>
-    <sheet name="transposition_t-ase_source list" sheetId="8" r:id="rId8"/>
+    <sheet name="transposition_...se_source list" sheetId="8" r:id="rId8"/>
     <sheet name="library_layout list" sheetId="9" r:id="rId9"/>
     <sheet name="library_final_yield_unit list" sheetId="10" r:id="rId10"/>
   </sheets>
@@ -1131,7 +1131,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AQ1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -1268,68 +1271,68 @@
     </row>
   </sheetData>
   <dataValidations count="19">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: sequence." sqref="I2:I1048576">
       <formula1>'assay_category list'!$A$1:$A$1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: SNARE-seq2 / scATACseq / sciATACseq / snATACseq." sqref="J2:J1048576">
       <formula1>'assay_type list'!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: DNA." sqref="K2:K1048576">
       <formula1>'analyte_class list'!$A$1:$A$1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a boolean" error="The values in this column must be &quot;TRUE&quot; or &quot;FALSE&quot;." sqref="L2:L1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a boolean" error="The values in this column must be &quot;TRUE&quot; or &quot;FALSE&quot;." sqref="O2:O1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: whole cell / nucleus / cell-cell multimer / spatially encoded cell barcoding." sqref="R2:R1048576">
       <formula1>'sc_isolation_entity list'!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: none / FACS." sqref="T2:T1048576">
       <formula1>'sc_isolation_enrichment list'!$A$1:$A$2</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V1048576">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not an integer" error="The values in this column must be integers." sqref="V2:V1048576">
       <formula1>-2147483647</formula1>
       <formula2>2147483647</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W1048576">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="W2:W1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2:X1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: SNARE-Seq2-AC / scATACseq / bulkATACseq / snATACseq / sciATACseq." sqref="X2:X1048576">
       <formula1>'transposition_method list'!$A$1:$A$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2:Y1048576">
-      <formula1>'transposition_t-ase_source list'!$A$1:$A$3</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB2:AB1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: 10X snATAC / In-house / Nextera." sqref="Y2:Y1048576">
+      <formula1>'transposition_...se_source list'!$A$1:$A$3</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: single-end / paired-end." sqref="AB2:AB1048576">
       <formula1>'library_layout list'!$A$1:$A$2</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG2:AG1048576">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not an integer" error="The values in this column must be integers." sqref="AG2:AG1048576">
       <formula1>-2147483647</formula1>
       <formula2>2147483647</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH2:AH1048576">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not an integer" error="The values in this column must be integers." sqref="AH2:AH1048576">
       <formula1>-2147483647</formula1>
       <formula2>2147483647</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI2:AI1048576">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AI2:AI1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ2:AJ1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: ng." sqref="AJ2:AJ1048576">
       <formula1>'library_final_yield_unit list'!$A$1:$A$1</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK2:AK1048576">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AK2:AK1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN2:AN1048576">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AN2:AN1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO2:AO1048576">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AO2:AO1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>

--- a/docs/scatacseq/scatacseq-metadata.xlsx
+++ b/docs/scatacseq/scatacseq-metadata.xlsx
@@ -193,7 +193,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>An acquisition_instrument is the device that contains the signal detection hardware and signal processing software. Assays can generate signals such as light of various intensities or color or signals representing molecular mass.</t>
+          <t>An acquisition instrument is the device that contains the signal detection hardware and signal processing software. Assays generate signals such as light of various intensities or color or signals representing the molecular mass.</t>
         </r>
       </text>
     </comment>

--- a/docs/scatacseq/scatacseq-metadata.xlsx
+++ b/docs/scatacseq/scatacseq-metadata.xlsx
@@ -8,15 +8,16 @@
   </bookViews>
   <sheets>
     <sheet name="Export as TSV" sheetId="1" r:id="rId1"/>
-    <sheet name="assay_category list" sheetId="2" r:id="rId2"/>
-    <sheet name="assay_type list" sheetId="3" r:id="rId3"/>
-    <sheet name="analyte_class list" sheetId="4" r:id="rId4"/>
-    <sheet name="sc_isolation_entity list" sheetId="5" r:id="rId5"/>
-    <sheet name="sc_isolation_enrichment list" sheetId="6" r:id="rId6"/>
-    <sheet name="transposition_method list" sheetId="7" r:id="rId7"/>
-    <sheet name="transposition_...se_source list" sheetId="8" r:id="rId8"/>
-    <sheet name="library_layout list" sheetId="9" r:id="rId9"/>
-    <sheet name="library_final_yield_unit list" sheetId="10" r:id="rId10"/>
+    <sheet name="version list" sheetId="2" r:id="rId2"/>
+    <sheet name="assay_category list" sheetId="3" r:id="rId3"/>
+    <sheet name="assay_type list" sheetId="4" r:id="rId4"/>
+    <sheet name="analyte_class list" sheetId="5" r:id="rId5"/>
+    <sheet name="sc_isolation_entity list" sheetId="6" r:id="rId6"/>
+    <sheet name="sc_isolation_enrichment list" sheetId="7" r:id="rId7"/>
+    <sheet name="transposition_method list" sheetId="8" r:id="rId8"/>
+    <sheet name="transposition_...se_source list" sheetId="9" r:id="rId9"/>
+    <sheet name="library_layout list" sheetId="10" r:id="rId10"/>
+    <sheet name="library_final_yield_unit list" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -37,11 +38,24 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t>Current version of metadata schema. Template provides the correct value.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t>HuBMAP Display ID of the donor of the assayed tissue.</t>
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -54,7 +68,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -67,7 +81,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -80,7 +94,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -93,7 +107,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -106,7 +120,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -119,7 +133,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -132,7 +146,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0">
+    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -145,7 +159,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0">
+    <comment ref="K1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -158,7 +172,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -171,7 +185,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -184,7 +198,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0">
+    <comment ref="N1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -197,7 +211,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0">
+    <comment ref="O1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -210,7 +224,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0">
+    <comment ref="P1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -223,7 +237,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0">
+    <comment ref="Q1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -236,7 +250,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0">
+    <comment ref="R1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -249,7 +263,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0">
+    <comment ref="S1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -262,7 +276,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0">
+    <comment ref="T1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -275,7 +289,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0">
+    <comment ref="U1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -288,7 +302,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0">
+    <comment ref="V1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -301,7 +315,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0">
+    <comment ref="W1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -314,7 +328,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0">
+    <comment ref="X1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -327,7 +341,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0">
+    <comment ref="Y1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -340,7 +354,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0">
+    <comment ref="Z1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -353,7 +367,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0">
+    <comment ref="AA1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -366,7 +380,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0">
+    <comment ref="AB1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -379,7 +393,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB1" authorId="0">
+    <comment ref="AC1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -392,7 +406,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC1" authorId="0">
+    <comment ref="AD1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -405,7 +419,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD1" authorId="0">
+    <comment ref="AE1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -418,7 +432,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE1" authorId="0">
+    <comment ref="AF1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -431,7 +445,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF1" authorId="0">
+    <comment ref="AG1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -444,7 +458,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AG1" authorId="0">
+    <comment ref="AH1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -457,7 +471,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AH1" authorId="0">
+    <comment ref="AI1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -470,7 +484,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AI1" authorId="0">
+    <comment ref="AJ1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -483,7 +497,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ1" authorId="0">
+    <comment ref="AK1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -496,7 +510,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AK1" authorId="0">
+    <comment ref="AL1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -509,7 +523,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AL1" authorId="0">
+    <comment ref="AM1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -522,7 +536,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AM1" authorId="0">
+    <comment ref="AN1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -535,7 +549,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AN1" authorId="0">
+    <comment ref="AO1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -548,7 +562,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AO1" authorId="0">
+    <comment ref="AP1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -561,7 +575,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AP1" authorId="0">
+    <comment ref="AQ1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -574,7 +588,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AQ1" authorId="0">
+    <comment ref="AR1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -592,7 +606,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="65">
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
   <si>
     <t>donor_id</t>
   </si>
@@ -1129,7 +1149,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ1"/>
+  <dimension ref="A1:AR1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1138,201 +1158,207 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:43">
+    <row r="1" spans="1:44">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK1" s="1" t="s">
         <v>56</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="19">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: sequence." sqref="I2:I1048576">
+  <dataValidations count="20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: 1." sqref="A2:A1048576">
+      <formula1>'version list'!$A$1:$A$1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: sequence." sqref="J2:J1048576">
       <formula1>'assay_category list'!$A$1:$A$1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: SNARE-seq2 / scATACseq / sciATACseq / snATACseq." sqref="J2:J1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: SNARE-seq2 / scATACseq / sciATACseq / snATACseq." sqref="K2:K1048576">
       <formula1>'assay_type list'!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: DNA." sqref="K2:K1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: DNA." sqref="L2:L1048576">
       <formula1>'analyte_class list'!$A$1:$A$1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a boolean" error="The values in this column must be &quot;TRUE&quot; or &quot;FALSE&quot;." sqref="L2:L1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a boolean" error="The values in this column must be &quot;TRUE&quot; or &quot;FALSE&quot;." sqref="M2:M1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a boolean" error="The values in this column must be &quot;TRUE&quot; or &quot;FALSE&quot;." sqref="O2:O1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a boolean" error="The values in this column must be &quot;TRUE&quot; or &quot;FALSE&quot;." sqref="P2:P1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: whole cell / nucleus / cell-cell multimer / spatially encoded cell barcoding." sqref="R2:R1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: whole cell / nucleus / cell-cell multimer / spatially encoded cell barcoding." sqref="S2:S1048576">
       <formula1>'sc_isolation_entity list'!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: none / FACS." sqref="T2:T1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: none / FACS." sqref="U2:U1048576">
       <formula1>'sc_isolation_enrichment list'!$A$1:$A$2</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not an integer" error="The values in this column must be integers." sqref="V2:V1048576">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not an integer" error="The values in this column must be integers." sqref="W2:W1048576">
       <formula1>-2147483647</formula1>
       <formula2>2147483647</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="W2:W1048576">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="X2:X1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: SNARE-Seq2-AC / scATACseq / bulkATACseq / snATACseq / sciATACseq." sqref="X2:X1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: SNARE-Seq2-AC / scATACseq / bulkATACseq / snATACseq / sciATACseq." sqref="Y2:Y1048576">
       <formula1>'transposition_method list'!$A$1:$A$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: 10X snATAC / In-house / Nextera." sqref="Y2:Y1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: 10X snATAC / In-house / Nextera." sqref="Z2:Z1048576">
       <formula1>'transposition_...se_source list'!$A$1:$A$3</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: single-end / paired-end." sqref="AB2:AB1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: single-end / paired-end." sqref="AC2:AC1048576">
       <formula1>'library_layout list'!$A$1:$A$2</formula1>
-    </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not an integer" error="The values in this column must be integers." sqref="AG2:AG1048576">
-      <formula1>-2147483647</formula1>
-      <formula2>2147483647</formula2>
     </dataValidation>
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not an integer" error="The values in this column must be integers." sqref="AH2:AH1048576">
       <formula1>-2147483647</formula1>
       <formula2>2147483647</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AI2:AI1048576">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not an integer" error="The values in this column must be integers." sqref="AI2:AI1048576">
+      <formula1>-2147483647</formula1>
+      <formula2>2147483647</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AJ2:AJ1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: ng." sqref="AJ2:AJ1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: ng." sqref="AK2:AK1048576">
       <formula1>'library_final_yield_unit list'!$A$1:$A$1</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AK2:AK1048576">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AL2:AL1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AN2:AN1048576">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AO2:AO1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AO2:AO1048576">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AP2:AP1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
@@ -1343,6 +1369,29 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1352,7 +1401,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1370,7 +1419,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1379,6 +1428,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A4"/>
   <sheetViews>
@@ -1388,22 +1455,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1411,7 +1478,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1421,7 +1488,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1429,7 +1496,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A4"/>
   <sheetViews>
@@ -1439,22 +1506,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1462,7 +1529,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -1472,12 +1539,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1485,7 +1552,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A5"/>
   <sheetViews>
@@ -1495,27 +1562,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1523,7 +1590,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A3"/>
   <sheetViews>
@@ -1533,40 +1600,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/docs/scatacseq/scatacseq-metadata.xlsx
+++ b/docs/scatacseq/scatacseq-metadata.xlsx
@@ -8,15 +8,16 @@
   </bookViews>
   <sheets>
     <sheet name="Export as TSV" sheetId="1" r:id="rId1"/>
-    <sheet name="assay_category list" sheetId="2" r:id="rId2"/>
-    <sheet name="assay_type list" sheetId="3" r:id="rId3"/>
-    <sheet name="analyte_class list" sheetId="4" r:id="rId4"/>
-    <sheet name="sc_isolation_entity list" sheetId="5" r:id="rId5"/>
-    <sheet name="sc_isolation_enrichment list" sheetId="6" r:id="rId6"/>
-    <sheet name="transposition_method list" sheetId="7" r:id="rId7"/>
-    <sheet name="transposition_...se_source list" sheetId="8" r:id="rId8"/>
-    <sheet name="library_layout list" sheetId="9" r:id="rId9"/>
-    <sheet name="library_final_yield_unit list" sheetId="10" r:id="rId10"/>
+    <sheet name="version list" sheetId="2" r:id="rId2"/>
+    <sheet name="assay_category list" sheetId="3" r:id="rId3"/>
+    <sheet name="assay_type list" sheetId="4" r:id="rId4"/>
+    <sheet name="analyte_class list" sheetId="5" r:id="rId5"/>
+    <sheet name="sc_isolation_entity list" sheetId="6" r:id="rId6"/>
+    <sheet name="sc_isolation_enrichment list" sheetId="7" r:id="rId7"/>
+    <sheet name="transposition_method list" sheetId="8" r:id="rId8"/>
+    <sheet name="transposition_...se_source list" sheetId="9" r:id="rId9"/>
+    <sheet name="library_layout list" sheetId="10" r:id="rId10"/>
+    <sheet name="library_final_yield_unit list" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -37,11 +38,37 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t>Version of the schema to use when validating this metadata.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Free-text description of this assay.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t>HuBMAP Display ID of the donor of the assayed tissue.</t>
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -54,7 +81,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -67,7 +94,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -80,7 +107,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -93,7 +120,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -106,7 +133,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -119,7 +146,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0">
+    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -132,7 +159,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0">
+    <comment ref="K1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -145,7 +172,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -158,7 +185,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -171,7 +198,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0">
+    <comment ref="N1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -184,7 +211,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0">
+    <comment ref="O1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -197,7 +224,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0">
+    <comment ref="P1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -210,7 +237,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0">
+    <comment ref="Q1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -223,7 +250,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0">
+    <comment ref="R1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -236,7 +263,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0">
+    <comment ref="S1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -249,7 +276,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0">
+    <comment ref="T1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -262,7 +289,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0">
+    <comment ref="U1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -275,7 +302,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0">
+    <comment ref="V1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -288,7 +315,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0">
+    <comment ref="W1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -301,7 +328,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0">
+    <comment ref="X1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -314,7 +341,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0">
+    <comment ref="Y1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -327,7 +354,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0">
+    <comment ref="Z1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -340,7 +367,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0">
+    <comment ref="AA1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -353,7 +380,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0">
+    <comment ref="AB1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -366,7 +393,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0">
+    <comment ref="AC1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -379,7 +406,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB1" authorId="0">
+    <comment ref="AD1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -392,7 +419,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC1" authorId="0">
+    <comment ref="AE1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -405,7 +432,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD1" authorId="0">
+    <comment ref="AF1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -418,7 +445,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE1" authorId="0">
+    <comment ref="AG1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -431,7 +458,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF1" authorId="0">
+    <comment ref="AH1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -444,7 +471,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AG1" authorId="0">
+    <comment ref="AI1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -457,7 +484,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AH1" authorId="0">
+    <comment ref="AJ1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -470,7 +497,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AI1" authorId="0">
+    <comment ref="AK1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -483,7 +510,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ1" authorId="0">
+    <comment ref="AL1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -496,7 +523,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AK1" authorId="0">
+    <comment ref="AM1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -509,7 +536,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AL1" authorId="0">
+    <comment ref="AN1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -522,7 +549,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AM1" authorId="0">
+    <comment ref="AO1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -535,7 +562,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AN1" authorId="0">
+    <comment ref="AP1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -548,7 +575,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AO1" authorId="0">
+    <comment ref="AQ1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -561,7 +588,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AP1" authorId="0">
+    <comment ref="AR1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -574,7 +601,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AQ1" authorId="0">
+    <comment ref="AS1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -592,7 +619,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="66">
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
   <si>
     <t>donor_id</t>
   </si>
@@ -1129,7 +1165,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ1"/>
+  <dimension ref="A1:AS1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1138,114 +1174,114 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:43">
+    <row r="1" spans="1:45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="W1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Y1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="Z1" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="AA1" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AC1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AD1" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="AE1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK1" s="1" t="s">
         <v>56</v>
@@ -1254,85 +1290,94 @@
         <v>57</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="19">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: sequence." sqref="I2:I1048576">
+  <dataValidations count="20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: 1." sqref="A2:A1048576">
+      <formula1>'version list'!$A$1:$A$1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: sequence." sqref="K2:K1048576">
       <formula1>'assay_category list'!$A$1:$A$1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: SNARE-seq2 / scATACseq / sciATACseq / snATACseq." sqref="J2:J1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: SNARE-seq2 / scATACseq / sciATACseq / snATACseq." sqref="L2:L1048576">
       <formula1>'assay_type list'!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: DNA." sqref="K2:K1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: DNA." sqref="M2:M1048576">
       <formula1>'analyte_class list'!$A$1:$A$1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a boolean" error="The values in this column must be &quot;TRUE&quot; or &quot;FALSE&quot;." sqref="L2:L1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a boolean" error="The values in this column must be &quot;TRUE&quot; or &quot;FALSE&quot;." sqref="N2:N1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a boolean" error="The values in this column must be &quot;TRUE&quot; or &quot;FALSE&quot;." sqref="O2:O1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a boolean" error="The values in this column must be &quot;TRUE&quot; or &quot;FALSE&quot;." sqref="Q2:Q1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: whole cell / nucleus / cell-cell multimer / spatially encoded cell barcoding." sqref="R2:R1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: whole cell / nucleus / cell-cell multimer / spatially encoded cell barcoding." sqref="T2:T1048576">
       <formula1>'sc_isolation_entity list'!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: none / FACS." sqref="T2:T1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: none / FACS." sqref="V2:V1048576">
       <formula1>'sc_isolation_enrichment list'!$A$1:$A$2</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not an integer" error="The values in this column must be integers." sqref="V2:V1048576">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not an integer" error="The values in this column must be integers." sqref="X2:X1048576">
       <formula1>-2147483647</formula1>
       <formula2>2147483647</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="W2:W1048576">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="Y2:Y1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: SNARE-Seq2-AC / scATACseq / bulkATACseq / snATACseq / sciATACseq." sqref="X2:X1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: SNARE-Seq2-AC / scATACseq / bulkATACseq / snATACseq / sciATACseq." sqref="Z2:Z1048576">
       <formula1>'transposition_method list'!$A$1:$A$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: 10X snATAC / In-house / Nextera." sqref="Y2:Y1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: 10X snATAC / In-house / Nextera." sqref="AA2:AA1048576">
       <formula1>'transposition_...se_source list'!$A$1:$A$3</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: single-end / paired-end." sqref="AB2:AB1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: single-end / paired-end." sqref="AD2:AD1048576">
       <formula1>'library_layout list'!$A$1:$A$2</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not an integer" error="The values in this column must be integers." sqref="AG2:AG1048576">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not an integer" error="The values in this column must be integers." sqref="AI2:AI1048576">
       <formula1>-2147483647</formula1>
       <formula2>2147483647</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not an integer" error="The values in this column must be integers." sqref="AH2:AH1048576">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not an integer" error="The values in this column must be integers." sqref="AJ2:AJ1048576">
       <formula1>-2147483647</formula1>
       <formula2>2147483647</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AI2:AI1048576">
-      <formula1>-1e+307</formula1>
-      <formula2>1e+307</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: ng." sqref="AJ2:AJ1048576">
-      <formula1>'library_final_yield_unit list'!$A$1:$A$1</formula1>
     </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AK2:AK1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AN2:AN1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: ng." sqref="AL2:AL1048576">
+      <formula1>'library_final_yield_unit list'!$A$1:$A$1</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AM2:AM1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AO2:AO1048576">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AP2:AP1048576">
+      <formula1>-1e+307</formula1>
+      <formula2>1e+307</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AQ2:AQ1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
@@ -1343,6 +1388,29 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1352,7 +1420,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1370,7 +1438,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1379,6 +1447,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A4"/>
   <sheetViews>
@@ -1388,22 +1474,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1411,7 +1497,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1421,7 +1507,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1429,7 +1515,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A4"/>
   <sheetViews>
@@ -1439,22 +1525,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1462,7 +1548,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -1472,12 +1558,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1485,7 +1571,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A5"/>
   <sheetViews>
@@ -1495,27 +1581,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1523,7 +1609,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A3"/>
   <sheetViews>
@@ -1533,40 +1619,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/docs/scatacseq/scatacseq-metadata.xlsx
+++ b/docs/scatacseq/scatacseq-metadata.xlsx
@@ -558,7 +558,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Number of sequencing cycles in Read1, i7 index, i5 index, and Read2. Eg: for 10X snATAC-seq: 50+8+16+50 (R1,Index,R2,R3). For SNARE-seq2: 75+94+8+75</t>
+          <t>Number of sequencing cycles in Read1, i7 index, i5 index, and Read2.</t>
         </r>
       </text>
     </comment>

--- a/docs/scatacseq/scatacseq-metadata.xlsx
+++ b/docs/scatacseq/scatacseq-metadata.xlsx
@@ -571,7 +571,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Percent of bases with Quality scores above Q30.</t>
+          <t>Percent of bases with Quality scores above Q30</t>
         </r>
       </text>
     </comment>

--- a/docs/scatacseq/scatacseq-metadata.xlsx
+++ b/docs/scatacseq/scatacseq-metadata.xlsx
@@ -571,7 +571,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Percent of bases with Quality scores above Q30</t>
+          <t>Q30 is the weighted average of all the reads (e.g. # bases UMI * q30 UMI + # bases R2 * q30 R2 + ...)</t>
         </r>
       </text>
     </comment>

--- a/docs/scatacseq/scatacseq-metadata.xlsx
+++ b/docs/scatacseq/scatacseq-metadata.xlsx
@@ -571,7 +571,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Percent of bases with Quality scores above Q30.</t>
+          <t>Q30 is the weighted average of all the reads (e.g. # bases UMI * q30 UMI + # bases R2 * q30 R2 + ...)</t>
         </r>
       </text>
     </comment>

--- a/docs/scatacseq/scatacseq-metadata.xlsx
+++ b/docs/scatacseq/scatacseq-metadata.xlsx
@@ -584,7 +584,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Percent PhiX loaded to the run.</t>
+          <t>Percent PhiX loaded to the run</t>
         </r>
       </text>
     </comment>

--- a/docs/scatacseq/scatacseq-metadata.xlsx
+++ b/docs/scatacseq/scatacseq-metadata.xlsx
@@ -558,7 +558,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Number of sequencing cycles in Read1, i7 index, i5 index, and Read2.</t>
+          <t>Slash-delimited list of the number of sequencing cycles for, for example, Read1, i7 index, i5 index, and Read2.</t>
         </r>
       </text>
     </comment>

--- a/docs/scatacseq/scatacseq-metadata.xlsx
+++ b/docs/scatacseq/scatacseq-metadata.xlsx
@@ -558,7 +558,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Number of sequencing cycles in Read1, i7 index, i5 index, and Read2.</t>
+          <t>Slash-delimited list of the number of sequencing cycles for, for example, Read1, i7 index, i5 index, and Read2.</t>
         </r>
       </text>
     </comment>
@@ -584,7 +584,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Percent PhiX loaded to the run.</t>
+          <t>Percent PhiX loaded to the run</t>
         </r>
       </text>
     </comment>

--- a/docs/scatacseq/scatacseq-metadata.xlsx
+++ b/docs/scatacseq/scatacseq-metadata.xlsx
@@ -415,7 +415,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Whether the library was generated for single-end or paired end sequencing.</t>
+          <t>State whether the library was generated for single-end or paired end sequencing.</t>
         </r>
       </text>
     </comment>

--- a/docs/scatacseq/scatacseq-metadata.xlsx
+++ b/docs/scatacseq/scatacseq-metadata.xlsx
@@ -545,7 +545,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Reagent kit used for sequencing. NovaSeq6000 for example</t>
+          <t>Reagent kit used for sequencing</t>
         </r>
       </text>
     </comment>

--- a/docs/scatacseq/scatacseq-metadata.xlsx
+++ b/docs/scatacseq/scatacseq-metadata.xlsx
@@ -285,7 +285,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>The type of single cell entity derived from isolation protocol.</t>
+          <t>The type of single cell entity derived from isolation protocol</t>
         </r>
       </text>
     </comment>

--- a/docs/scatacseq/scatacseq-metadata.xlsx
+++ b/docs/scatacseq/scatacseq-metadata.xlsx
@@ -619,7 +619,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="67">
   <si>
     <t>version</t>
   </si>
@@ -754,6 +754,9 @@
   </si>
   <si>
     <t>Nextera</t>
+  </si>
+  <si>
+    <t>10X multiome</t>
   </si>
   <si>
     <t>transposition_kit_number</t>
@@ -1257,58 +1260,58 @@
         <v>41</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1348,8 +1351,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: SNARE-Seq2-AC / scATACseq / bulkATACseq / snATACseq / sciATACseq." sqref="Z2:Z1048576">
       <formula1>'transposition_method list'!$A$1:$A$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: 10X snATAC / In-house / Nextera." sqref="AA2:AA1048576">
-      <formula1>'transposition_...se_source list'!$A$1:$A$3</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: 10X snATAC / In-house / Nextera / 10X multiome." sqref="AA2:AA1048576">
+      <formula1>'transposition_...se_source list'!$A$1:$A$4</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: single-end / paired-end." sqref="AD2:AD1048576">
       <formula1>'library_layout list'!$A$1:$A$2</formula1>
@@ -1397,12 +1400,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1420,7 +1423,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1611,7 +1614,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1632,6 +1635,11 @@
         <v>44</v>
       </c>
     </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/scatacseq/scatacseq-metadata.xlsx
+++ b/docs/scatacseq/scatacseq-metadata.xlsx
@@ -441,7 +441,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Which read file contains the cell barcode.</t>
+          <t>Which read file contains the cell barcode. This field is not required for barcoding by single-cell combinatorial indexing.</t>
         </r>
       </text>
     </comment>
@@ -454,7 +454,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Positions in the read at which the cell barcodes start. Cell barcodes are, for example, 3 x 8 bp sequences that are spaced by constant sequences (the offsets). First barcode at position 0, then 38, then 76. (Does not apply to SNARE-seq and BulkATAC.)</t>
+          <t>Positions in the read at which the cell barcodes start. Cell barcodes are, for example, 3 x 8 bp sequences that are spaced by constant sequences (the offsets). First barcode at position 0, then 38, then 76. (Does not apply to sciATACseq, SNARE-seq and BulkATAC.)</t>
         </r>
       </text>
     </comment>
@@ -467,7 +467,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Length of the cell barcode in base pairs. Cell barcodes are, for example, 3 x 8 bp sequences that are spaced by constant sequences, the offsets. (Does not apply to SNARE-seq and BulkATAC.)</t>
+          <t>Length of the cell barcode in base pairs. Cell barcodes are, for example, 3 x 8 bp sequences that are spaced by constant sequences, the offsets. (Does not apply to sciATACseq, SNARE-seq and BulkATAC.)</t>
         </r>
       </text>
     </comment>

--- a/docs/scatacseq/scatacseq-metadata.xlsx
+++ b/docs/scatacseq/scatacseq-metadata.xlsx
@@ -207,7 +207,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Specifies whether or not a specific molecule(s) is/are targeted for detection/measurement by the assay. The CODEX analyte is protein.</t>
+          <t>Specifies whether or not a specific molecule(s) is/are targeted for detection/measurement by the assay.</t>
         </r>
       </text>
     </comment>

--- a/docs/scatacseq/scatacseq-metadata.xlsx
+++ b/docs/scatacseq/scatacseq-metadata.xlsx
@@ -441,7 +441,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Which read file contains the cell barcode. This field is not required for barcoding by single-cell combinatorial indexing.</t>
+          <t>Which read files contains the cell barcodes.</t>
         </r>
       </text>
     </comment>
@@ -624,7 +624,7 @@
     <t>version</t>
   </si>
   <si>
-    <t>1</t>
+    <t>2</t>
   </si>
   <si>
     <t>description</t>
@@ -777,7 +777,7 @@
     <t>library_adapter_sequence</t>
   </si>
   <si>
-    <t>cell_barcode_read</t>
+    <t>cell_barcode_reads</t>
   </si>
   <si>
     <t>cell_barcode_offset</t>
@@ -1316,7 +1316,7 @@
     </row>
   </sheetData>
   <dataValidations count="20">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: 1." sqref="A2:A1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: 2." sqref="A2:A1048576">
       <formula1>'version list'!$A$1:$A$1</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: sequence." sqref="K2:K1048576">

--- a/docs/scatacseq/scatacseq-metadata.xlsx
+++ b/docs/scatacseq/scatacseq-metadata.xlsx
@@ -441,7 +441,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Which read files contains the cell barcodes.</t>
+          <t>Which read files contains the cell barcodes, formatted as a JSON array.</t>
         </r>
       </text>
     </comment>

--- a/docs/scatacseq/scatacseq-metadata.xlsx
+++ b/docs/scatacseq/scatacseq-metadata.xlsx
@@ -441,7 +441,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Which read files contains the cell barcodes.</t>
+          <t>Which read files contains the cell barcodes: Comma-delimited list.</t>
         </r>
       </text>
     </comment>

--- a/docs/scatacseq/scatacseq-metadata.xlsx
+++ b/docs/scatacseq/scatacseq-metadata.xlsx
@@ -441,7 +441,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Which read file contains the cell barcode. This field is not required for barcoding by single-cell combinatorial indexing.</t>
+          <t>Which read file(s) contains the cell barcode. Multiple cell_barcode_read files must be provided as a comma-delimited list (e.g. file1,file2,file3). This field is not required for barcoding by single-cell combinatorial indexing.</t>
         </r>
       </text>
     </comment>

--- a/docs/scatacseq/scatacseq-metadata.xlsx
+++ b/docs/scatacseq/scatacseq-metadata.xlsx
@@ -12,12 +12,14 @@
     <sheet name="assay_category list" sheetId="3" r:id="rId3"/>
     <sheet name="assay_type list" sheetId="4" r:id="rId4"/>
     <sheet name="analyte_class list" sheetId="5" r:id="rId5"/>
-    <sheet name="sc_isolation_entity list" sheetId="6" r:id="rId6"/>
-    <sheet name="sc_isolation_enrichment list" sheetId="7" r:id="rId7"/>
-    <sheet name="transposition_method list" sheetId="8" r:id="rId8"/>
-    <sheet name="transposition_...se_source list" sheetId="9" r:id="rId9"/>
-    <sheet name="library_layout list" sheetId="10" r:id="rId10"/>
-    <sheet name="library_final_yield_unit list" sheetId="11" r:id="rId11"/>
+    <sheet name="is_targeted list" sheetId="6" r:id="rId6"/>
+    <sheet name="is_technical_replicate list" sheetId="7" r:id="rId7"/>
+    <sheet name="sc_isolation_entity list" sheetId="8" r:id="rId8"/>
+    <sheet name="sc_isolation_enrichment list" sheetId="9" r:id="rId9"/>
+    <sheet name="transposition_method list" sheetId="10" r:id="rId10"/>
+    <sheet name="transposition_...se_source list" sheetId="11" r:id="rId11"/>
+    <sheet name="library_layout list" sheetId="12" r:id="rId12"/>
+    <sheet name="library_final_yield_unit list" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -619,7 +621,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="69">
   <si>
     <t>version</t>
   </si>
@@ -682,6 +684,12 @@
   </si>
   <si>
     <t>is_targeted</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>FALSE</t>
   </si>
   <si>
     <t>acquisition_instrument_vendor</t>
@@ -1221,97 +1229,97 @@
         <v>20</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1328,11 +1336,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: DNA." sqref="M2:M1048576">
       <formula1>'analyte_class list'!$A$1:$A$1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a boolean" error="The values in this column must be &quot;TRUE&quot; or &quot;FALSE&quot;." sqref="N2:N1048576">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a boolean" error="The values in this column must be &quot;TRUE&quot; or &quot;FALSE&quot;." sqref="Q2:Q1048576">
-      <formula1>"TRUE,FALSE"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: TRUE / FALSE." sqref="N2:N1048576">
+      <formula1>'is_targeted list'!$A$1:$A$2</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: TRUE / FALSE." sqref="Q2:Q1048576">
+      <formula1>'is_technical_replicate list'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: whole cell / nucleus / cell-cell multimer / spatially encoded cell barcoding." sqref="T2:T1048576">
       <formula1>'sc_isolation_entity list'!$A$1:$A$4</formula1>
@@ -1391,6 +1399,77 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -1400,12 +1479,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1413,7 +1492,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1423,7 +1502,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1520,7 +1599,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1528,22 +1607,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1561,12 +1630,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1575,44 +1644,6 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A4"/>
   <sheetViews>
@@ -1622,22 +1653,45 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/docs/scatacseq/scatacseq-metadata.xlsx
+++ b/docs/scatacseq/scatacseq-metadata.xlsx
@@ -168,7 +168,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Each assay is placed into one of the following 3 general categories: generation of images of microscopic entities, identification &amp; quantitation of molecules by mass spectrometry, and determination of nucleotide sequence.</t>
+          <t>Each assay is placed into one of the following 4 general categories: generation of images of microscopic entities, identification &amp; quantitation of molecules by mass spectrometry, imaging mass spectrometry, and determination of nucleotide sequence.</t>
         </r>
       </text>
     </comment>

--- a/docs/scatacseq/scatacseq-metadata.xlsx
+++ b/docs/scatacseq/scatacseq-metadata.xlsx
@@ -532,7 +532,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Average size of sequencing library fragments estimated via gel electrophoresis or bioanalyzer/tapestation. Numeric value in bp.</t>
+          <t>Average size in basepairs (bp) of sequencing library fragments estimated via gel electrophoresis or bioanalyzer/tapestation.</t>
         </r>
       </text>
     </comment>
@@ -1372,9 +1372,9 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: ng." sqref="AL2:AL1048576">
       <formula1>'library_final_yield_unit list'!$A$1:$A$1</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AM2:AM1048576">
-      <formula1>-1e+307</formula1>
-      <formula2>1e+307</formula2>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not an integer" error="The values in this column must be integers." sqref="AM2:AM1048576">
+      <formula1>-2147483647</formula1>
+      <formula2>2147483647</formula2>
     </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AP2:AP1048576">
       <formula1>-1e+307</formula1>

--- a/docs/scatacseq/scatacseq-metadata.xlsx
+++ b/docs/scatacseq/scatacseq-metadata.xlsx
@@ -619,7 +619,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="66">
   <si>
     <t>version</t>
   </si>
@@ -664,9 +664,6 @@
   </si>
   <si>
     <t>SNARE-seq2</t>
-  </si>
-  <si>
-    <t>scATACseq</t>
   </si>
   <si>
     <t>sciATACseq</t>
@@ -1215,103 +1212,103 @@
         <v>13</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="U1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="W1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="Z1" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="AA1" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AB1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AD1" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="AE1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AL1" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="AM1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1322,8 +1319,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: sequence." sqref="K2:K1048576">
       <formula1>'assay_category list'!$A$1:$A$1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: SNARE-seq2 / scATACseq / sciATACseq / snATACseq." sqref="L2:L1048576">
-      <formula1>'assay_type list'!$A$1:$A$4</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: SNARE-seq2 / sciATACseq / snATACseq." sqref="L2:L1048576">
+      <formula1>'assay_type list'!$A$1:$A$3</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: DNA." sqref="M2:M1048576">
       <formula1>'analyte_class list'!$A$1:$A$1</formula1>
@@ -1348,8 +1345,8 @@
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: SNARE-Seq2-AC / scATACseq / bulkATACseq / snATACseq / sciATACseq." sqref="Z2:Z1048576">
-      <formula1>'transposition_method list'!$A$1:$A$5</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: SNARE-Seq2-AC / bulkATACseq / snATACseq / sciATACseq." sqref="Z2:Z1048576">
+      <formula1>'transposition_method list'!$A$1:$A$4</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: 10X snATAC / In-house / Nextera / 10X multiome." sqref="AA2:AA1048576">
       <formula1>'transposition_...se_source list'!$A$1:$A$4</formula1>
@@ -1400,12 +1397,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1423,7 +1420,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1469,7 +1466,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1488,11 +1485,6 @@
     <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1510,7 +1502,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1528,22 +1520,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1561,12 +1553,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1576,7 +1568,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1584,27 +1576,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1622,22 +1609,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/docs/scatacseq/scatacseq-metadata.xlsx
+++ b/docs/scatacseq/scatacseq-metadata.xlsx
@@ -285,7 +285,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>The type of single cell entity derived from isolation protocol</t>
+          <t>The type of single cell entity derived from isolation protocol.</t>
         </r>
       </text>
     </comment>
